--- a/biology/Zoologie/Cotesia_rubecula/Cotesia_rubecula.xlsx
+++ b/biology/Zoologie/Cotesia_rubecula/Cotesia_rubecula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cotesia rubecula est une espèce d'insectes hyménoptères de la famille des Braconidae. Elle parasite des larves de lépidoptères, mais peut, à son tour, être parasitée par la guêpe hyperparasite Lysibia nana.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Cotesia rubecula a été initialement décrite en 1885 par le révérend Thomas Ansell Marshall (d) sous le protonyme d’Apanteles rubecula[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cotesia rubecula a été initialement décrite en 1885 par le révérend Thomas Ansell Marshall (d) sous le protonyme d’Apanteles rubecula.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Rev. T. A. Marshall, « Monograph of British Braconidae. Part I », Transactions of the Royal Entomological Society of London, Royal Entomological Society, vol. 33, no 1,‎ 1885, p. 1-280 (ISSN 0035-8894 et 2056-5259, OCLC 1125695995, DOI 10.1111/J.1365-2311.1885.TB00886.X, lire en ligne)</t>
         </is>
